--- a/second-order/1879/February1879.xlsx
+++ b/second-order/1879/February1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/NMLAProjects/Second Order Stations/ANNE/Pending/1879/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="11_F97D265279DE683645B110BA7E79390646AD845C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6311B229-7564-4122-878F-0106B52625B7}"/>
+  <xr:revisionPtr revIDLastSave="1543" documentId="11_F97D265279DE683645B110BA7E79390646AD845C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EFEF06-2991-4A0D-A86D-F301579129D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="14" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="102">
   <si>
     <t>Barometer</t>
   </si>
@@ -250,6 +250,15 @@
     <t>Oscott</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>S-SSW</t>
   </si>
   <si>
@@ -259,16 +268,13 @@
     <t>7-8</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>0-1</t>
   </si>
   <si>
     <t>Churchstoke, Montgomery</t>
+  </si>
+  <si>
+    <t>mean:2.3</t>
   </si>
   <si>
     <t>Audley End</t>
@@ -283,10 +289,7 @@
     <t>Marlborough</t>
   </si>
   <si>
-    <t>29.141`</t>
-  </si>
-  <si>
-    <t>/139</t>
+    <t>mean:8.2</t>
   </si>
   <si>
     <t>Strathfield Turgiss</t>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>5-6</t>
-  </si>
-  <si>
-    <t>2-3</t>
   </si>
   <si>
     <t>Southampton</t>
@@ -325,6 +325,9 @@
     <t>Dartmoor</t>
   </si>
   <si>
+    <t>Mean: 8.2</t>
+  </si>
+  <si>
     <t>Babbacombe, Devon</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
   </si>
   <si>
     <t>SNE</t>
-  </si>
-  <si>
-    <t>.43.7</t>
   </si>
   <si>
     <t>Londonderry</t>
@@ -408,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -541,11 +541,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,9 +609,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,6 +616,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,7 +673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -937,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -961,34 +985,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1380,7 @@
         <v>0.249</v>
       </c>
       <c r="M8" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N8" s="6">
         <v>84</v>
@@ -1749,7 +1773,7 @@
         <v>95</v>
       </c>
       <c r="N14" s="6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>28</v>
@@ -2307,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>20.084</v>
+        <v>29.084</v>
       </c>
       <c r="F23" s="6">
         <v>29.207000000000001</v>
@@ -2915,11 +2939,15 @@
       <c r="N32" s="12">
         <v>83.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.9</v>
       </c>
@@ -2950,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="I20" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2964,34 +2992,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4118,7 +4146,7 @@
         <v>28.983000000000001</v>
       </c>
       <c r="F20" s="6">
-        <v>28.923400000000001</v>
+        <v>28.934000000000001</v>
       </c>
       <c r="G20" s="1">
         <v>34.799999999999997</v>
@@ -4918,11 +4946,15 @@
       <c r="N32" s="12">
         <v>91.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.7</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.6</v>
       </c>
@@ -4953,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4967,34 +4999,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -5752,7 +5784,7 @@
         <v>0.187</v>
       </c>
       <c r="M14" s="1">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="N14" s="6">
         <v>84</v>
@@ -6881,7 +6913,7 @@
         <v>10</v>
       </c>
       <c r="U31" s="9">
-        <v>0.25700000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
@@ -6921,11 +6953,15 @@
       <c r="N32" s="12">
         <v>93.2</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.1</v>
       </c>
@@ -6955,11 +6991,11 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <pane ySplit="3" topLeftCell="B26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -6979,34 +7015,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7122,14 +7158,14 @@
       <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="17">
-        <v>44654</v>
+      <c r="P4" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="18">
-        <v>44622</v>
+      <c r="R4" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="S4" s="1">
         <v>10</v>
@@ -7193,8 +7229,8 @@
       <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="18">
-        <v>44593</v>
+      <c r="R5" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="S5" s="1">
         <v>10</v>
@@ -7386,7 +7422,7 @@
         <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R8" s="6">
         <v>4</v>
@@ -7453,8 +7489,8 @@
       <c r="Q9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="21" t="s">
-        <v>63</v>
+      <c r="R9" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
@@ -7518,8 +7554,8 @@
       <c r="Q10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="21" t="s">
-        <v>64</v>
+      <c r="R10" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -7973,8 +8009,8 @@
       <c r="Q17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="21" t="s">
-        <v>65</v>
+      <c r="R17" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="S17" s="1">
         <v>10</v>
@@ -8103,8 +8139,8 @@
       <c r="Q19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="21" t="s">
-        <v>66</v>
+      <c r="R19" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="S19" s="1">
         <v>9</v>
@@ -8148,7 +8184,7 @@
         <v>41</v>
       </c>
       <c r="K20" s="1">
-        <v>182</v>
+        <v>0.182</v>
       </c>
       <c r="L20" s="6">
         <v>0.182</v>
@@ -8234,7 +8270,7 @@
         <v>21</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S21" s="1">
         <v>10</v>
@@ -8494,7 +8530,7 @@
         <v>30</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S25" s="1">
         <v>9</v>
@@ -8618,7 +8654,7 @@
         <v>27</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>39</v>
@@ -8682,8 +8718,8 @@
       <c r="O28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="17">
-        <v>44654</v>
+      <c r="P28" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>39</v>
@@ -8819,7 +8855,7 @@
         <v>27</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S30" s="1">
         <v>10</v>
@@ -8878,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>33</v>
@@ -8933,11 +8969,15 @@
       <c r="N32" s="12">
         <v>92.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.5</v>
       </c>
@@ -8950,6 +8990,23 @@
       <c r="U32" s="13">
         <v>2.64</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8967,10 +9024,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8983,34 +9040,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9082,7 +9139,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -9147,7 +9204,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -9212,7 +9269,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -9277,7 +9334,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -9342,7 +9399,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -9407,7 +9464,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -9472,7 +9529,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -9484,10 +9541,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>29.231999999999999</v>
+        <v>29.251999999999999</v>
       </c>
       <c r="F10" s="6">
-        <v>20.177</v>
+        <v>29.177</v>
       </c>
       <c r="G10" s="1">
         <v>46.1</v>
@@ -9537,7 +9594,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -9602,7 +9659,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -9667,7 +9724,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -9732,7 +9789,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -9744,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="5">
-        <v>28.956</v>
+        <v>28.966000000000001</v>
       </c>
       <c r="F14" s="6">
         <v>29.254999999999999</v>
@@ -9797,7 +9854,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -9862,7 +9919,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -9927,7 +9984,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -9992,7 +10049,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -10057,7 +10114,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -10122,7 +10179,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -10187,7 +10244,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -10252,7 +10309,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -10317,7 +10374,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -10382,7 +10439,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -10447,7 +10504,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -10512,7 +10569,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -10577,7 +10634,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -10642,7 +10699,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -10707,7 +10764,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -10772,7 +10829,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -10837,7 +10894,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -10937,11 +10994,15 @@
       <c r="N32" s="12">
         <v>91.6</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.5</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.3</v>
       </c>
@@ -10953,6 +11014,11 @@
       </c>
       <c r="U32" s="13">
         <v>2.74</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18">
+      <c r="R33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -10972,8 +11038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10986,34 +11052,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -11085,7 +11151,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -11150,7 +11216,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -11215,7 +11281,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -11275,12 +11341,12 @@
         <v>10</v>
       </c>
       <c r="U6" s="9">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -11345,7 +11411,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -11410,7 +11476,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -11475,7 +11541,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -11540,7 +11606,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -11605,7 +11671,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -11670,7 +11736,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -11735,7 +11801,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -11800,7 +11866,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -11859,13 +11925,13 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="26">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -11924,13 +11990,13 @@
       <c r="T16" s="1">
         <v>10</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="26">
         <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -11989,13 +12055,13 @@
       <c r="T17" s="1">
         <v>10</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="26">
         <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -12054,13 +12120,13 @@
       <c r="T18" s="1">
         <v>10</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="26">
         <v>0.31</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -12119,13 +12185,13 @@
       <c r="T19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="26">
         <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -12184,13 +12250,13 @@
       <c r="T20" s="1">
         <v>8</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="26">
         <v>0.06</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -12249,13 +12315,13 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -12314,13 +12380,13 @@
       <c r="T22" s="1">
         <v>10</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="26">
         <v>0.21</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -12379,13 +12445,13 @@
       <c r="T23" s="1">
         <v>10</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="26">
         <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -12444,13 +12510,13 @@
       <c r="T24" s="1">
         <v>10</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="26">
         <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -12509,13 +12575,13 @@
       <c r="T25" s="1">
         <v>10</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="26">
         <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -12574,13 +12640,13 @@
       <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="26">
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -12639,13 +12705,13 @@
       <c r="T27" s="1">
         <v>0</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -12704,13 +12770,13 @@
       <c r="T28" s="1">
         <v>10</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="26">
         <v>0.02</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -12769,13 +12835,13 @@
       <c r="T29" s="1">
         <v>0</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="26">
         <v>0.02</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -12834,13 +12900,13 @@
       <c r="T30" s="1">
         <v>10</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="26">
         <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -12899,7 +12965,7 @@
       <c r="T31" s="1">
         <v>10</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="26">
         <v>0.15</v>
       </c>
     </row>
@@ -12940,11 +13006,15 @@
       <c r="N32" s="12">
         <v>90.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.9</v>
       </c>
@@ -12975,8 +13045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="S25" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -12989,34 +13059,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -13088,7 +13158,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -13148,12 +13218,12 @@
         <v>10</v>
       </c>
       <c r="U4" s="9">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -13218,7 +13288,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -13283,7 +13353,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -13348,7 +13418,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -13413,7 +13483,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -13478,7 +13548,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -13543,7 +13613,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -13608,7 +13678,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -13673,7 +13743,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -13738,7 +13808,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -13803,7 +13873,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -13868,7 +13938,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -13933,7 +14003,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -13998,7 +14068,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -14063,7 +14133,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -14128,7 +14198,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -14193,7 +14263,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -14258,7 +14328,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -14323,7 +14393,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -14388,7 +14458,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -14453,7 +14523,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -14518,7 +14588,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -14583,7 +14653,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -14648,7 +14718,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -14713,7 +14783,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -14778,7 +14848,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -14843,7 +14913,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -14977,11 +15047,11 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+      <pane ySplit="3" topLeftCell="J23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -15001,34 +15071,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -15100,7 +15170,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -15165,7 +15235,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -15230,7 +15300,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -15295,7 +15365,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -15310,7 +15380,7 @@
         <v>30.05</v>
       </c>
       <c r="F7" s="6">
-        <v>30.053000000000001</v>
+        <v>30.033000000000001</v>
       </c>
       <c r="G7" s="1">
         <v>38</v>
@@ -15360,7 +15430,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -15425,7 +15495,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -15490,7 +15560,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -15555,7 +15625,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -15570,7 +15640,7 @@
         <v>29.471</v>
       </c>
       <c r="F11" s="6">
-        <v>20.431000000000001</v>
+        <v>29.431000000000001</v>
       </c>
       <c r="G11" s="1">
         <v>46.3</v>
@@ -15620,7 +15690,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -15685,7 +15755,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -15750,7 +15820,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -15815,7 +15885,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -15880,7 +15950,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -15945,7 +16015,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -16010,7 +16080,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -16075,7 +16145,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -16140,7 +16210,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -16155,7 +16225,7 @@
         <v>29.033999999999999</v>
       </c>
       <c r="F20" s="6">
-        <v>29.003</v>
+        <v>29.093</v>
       </c>
       <c r="G20" s="1">
         <v>37</v>
@@ -16205,7 +16275,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -16270,7 +16340,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -16335,7 +16405,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -16350,7 +16420,7 @@
         <v>29.085999999999999</v>
       </c>
       <c r="F23" s="6">
-        <v>2.1019999999999999</v>
+        <v>29.102</v>
       </c>
       <c r="G23" s="1">
         <v>31.9</v>
@@ -16400,7 +16470,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -16465,7 +16535,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -16530,7 +16600,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -16595,7 +16665,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -16660,7 +16730,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -16725,7 +16795,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -16790,7 +16860,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -16855,7 +16925,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -16955,11 +17025,15 @@
       <c r="N32" s="12">
         <v>92.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.6</v>
       </c>
@@ -16969,9 +17043,26 @@
       <c r="T32" s="12">
         <v>7.3</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U32" s="18">
         <v>4.9400000000000004</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16989,10 +17080,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:R24"/>
+    <sheetView topLeftCell="J23" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -17005,34 +17096,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -17104,7 +17195,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -17169,7 +17260,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -17234,7 +17325,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -17299,7 +17390,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -17364,7 +17455,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -17429,7 +17520,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -17494,7 +17585,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -17559,7 +17650,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -17624,7 +17715,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -17638,8 +17729,8 @@
       <c r="E12" s="5">
         <v>29.344000000000001</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>73</v>
+      <c r="F12" s="6">
+        <v>29.140999999999998</v>
       </c>
       <c r="G12" s="1">
         <v>48.7</v>
@@ -17689,7 +17780,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -17754,7 +17845,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -17819,7 +17910,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -17884,7 +17975,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -17949,7 +18040,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -18014,7 +18105,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -18079,7 +18170,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -18144,7 +18235,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -18156,7 +18247,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="5">
-        <v>29.068000000000001</v>
+        <v>29.027999999999999</v>
       </c>
       <c r="F20" s="6">
         <v>29.039000000000001</v>
@@ -18209,7 +18300,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -18274,7 +18365,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -18339,7 +18430,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -18404,7 +18495,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -18436,8 +18527,8 @@
       <c r="K24" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>74</v>
+      <c r="L24" s="6">
+        <v>0.13900000000000001</v>
       </c>
       <c r="M24" s="1">
         <v>92</v>
@@ -18469,7 +18560,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -18534,7 +18625,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -18599,7 +18690,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -18664,7 +18755,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -18729,7 +18820,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -18794,7 +18885,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -18859,7 +18950,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -18959,11 +19050,15 @@
       <c r="N32" s="12">
         <v>92.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.8</v>
       </c>
@@ -18975,6 +19070,11 @@
       </c>
       <c r="U32" s="13">
         <v>4.7430000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20">
+      <c r="T33" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -18993,11 +19093,11 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <pane ySplit="3" topLeftCell="J24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -19017,34 +19117,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -19116,7 +19216,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -19160,8 +19260,8 @@
       <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>65</v>
+      <c r="P4" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
@@ -19181,7 +19281,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -19226,7 +19326,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>31</v>
@@ -19246,7 +19346,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -19311,7 +19411,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -19376,7 +19476,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -19441,7 +19541,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -19485,8 +19585,8 @@
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>65</v>
+      <c r="P9" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>36</v>
@@ -19506,7 +19606,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -19550,8 +19650,8 @@
       <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>76</v>
+      <c r="P10" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>25</v>
@@ -19571,7 +19671,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -19621,8 +19721,8 @@
       <c r="Q11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="21" t="s">
-        <v>77</v>
+      <c r="R11" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="S11" s="1">
         <v>7</v>
@@ -19636,7 +19736,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -19701,7 +19801,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -19746,13 +19846,13 @@
         <v>27</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="21" t="s">
-        <v>78</v>
+      <c r="R13" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="S13" s="1">
         <v>10</v>
@@ -19761,12 +19861,12 @@
         <v>10</v>
       </c>
       <c r="U13" s="9">
-        <v>0.39800000000000002</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -19831,7 +19931,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -19896,7 +19996,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -19940,8 +20040,8 @@
       <c r="O16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>79</v>
+      <c r="P16" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>27</v>
@@ -19961,7 +20061,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -20026,7 +20126,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -20091,7 +20191,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -20156,7 +20256,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -20201,7 +20301,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>38</v>
@@ -20221,7 +20321,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -20236,7 +20336,7 @@
         <v>29.181000000000001</v>
       </c>
       <c r="F21" s="6">
-        <v>20.370999999999999</v>
+        <v>29.370999999999999</v>
       </c>
       <c r="G21" s="1">
         <v>34.1</v>
@@ -20286,7 +20386,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -20351,7 +20451,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -20416,7 +20516,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -20461,13 +20561,13 @@
         <v>33</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S24" s="1">
         <v>10</v>
@@ -20481,7 +20581,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -20546,7 +20646,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -20591,7 +20691,7 @@
         <v>29</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>33</v>
@@ -20611,7 +20711,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -20676,7 +20776,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -20741,7 +20841,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -20806,7 +20906,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -20871,7 +20971,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -20971,11 +21071,15 @@
       <c r="N32" s="12">
         <v>86.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.8</v>
       </c>
@@ -20988,6 +21092,23 @@
       <c r="U32" s="13">
         <v>3.2069999999999999</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21007,8 +21128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="K26" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -21021,34 +21142,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -21670,7 +21791,7 @@
         <v>49.7</v>
       </c>
       <c r="K12" s="1">
-        <v>336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L12" s="6">
         <v>0.35699999999999998</v>
@@ -22975,11 +23096,15 @@
       <c r="N32" s="12">
         <v>93</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>3.1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>3.1</v>
       </c>
@@ -23010,8 +23135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -23024,34 +23149,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -24028,10 +24153,10 @@
         <v>10</v>
       </c>
       <c r="U17" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="15">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -24092,8 +24217,8 @@
       <c r="T18" s="1">
         <v>10</v>
       </c>
-      <c r="U18" s="16">
-        <v>1.73</v>
+      <c r="U18" s="22">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
@@ -24158,7 +24283,7 @@
         <v>10</v>
       </c>
       <c r="U19" s="9">
-        <v>0.28699999999999998</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
@@ -24223,7 +24348,7 @@
         <v>10</v>
       </c>
       <c r="U20" s="9">
-        <v>9.8000000000000004E-2</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
@@ -24287,8 +24412,8 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>22</v>
+      <c r="U21" s="9">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
@@ -24978,11 +25103,15 @@
       <c r="N32" s="12">
         <v>88.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.2</v>
       </c>
@@ -25013,8 +25142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="M20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -25027,34 +25156,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -25236,7 +25365,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>32</v>
@@ -25306,8 +25435,8 @@
       <c r="Q6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="21" t="s">
-        <v>77</v>
+      <c r="R6" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="S6" s="1">
         <v>10</v>
@@ -25365,8 +25494,8 @@
       <c r="O7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>77</v>
+      <c r="P7" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>39</v>
@@ -25501,8 +25630,8 @@
       <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="21" t="s">
-        <v>78</v>
+      <c r="R9" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
@@ -25560,14 +25689,14 @@
       <c r="O10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>78</v>
+      <c r="P10" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="21" t="s">
-        <v>78</v>
+      <c r="R10" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -25596,7 +25725,7 @@
         <v>29.571000000000002</v>
       </c>
       <c r="F11" s="6">
-        <v>20.658999999999999</v>
+        <v>29.658999999999999</v>
       </c>
       <c r="G11" s="1">
         <v>43.6</v>
@@ -25892,7 +26021,7 @@
         <v>37</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S15" s="1">
         <v>4</v>
@@ -26145,8 +26274,8 @@
       <c r="O19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="20" t="s">
-        <v>77</v>
+      <c r="P19" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>41</v>
@@ -26340,11 +26469,11 @@
       <c r="O22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="20" t="s">
-        <v>77</v>
+      <c r="P22" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R22" s="6">
         <v>3</v>
@@ -26405,8 +26534,8 @@
       <c r="O23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="20" t="s">
-        <v>66</v>
+      <c r="P23" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>26</v>
@@ -26471,13 +26600,13 @@
         <v>36</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S24" s="1">
         <v>10</v>
@@ -26601,13 +26730,13 @@
         <v>33</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="21" t="s">
-        <v>79</v>
+      <c r="R26" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="S26" s="1">
         <v>9</v>
@@ -26666,13 +26795,13 @@
         <v>39</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="21" t="s">
-        <v>66</v>
+      <c r="R27" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="S27" s="1">
         <v>2</v>
@@ -26698,7 +26827,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>20.959</v>
+        <v>29.959</v>
       </c>
       <c r="F28" s="6">
         <v>29.887</v>
@@ -26736,8 +26865,8 @@
       <c r="Q28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="21" t="s">
-        <v>63</v>
+      <c r="R28" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="S28" s="1">
         <v>9</v>
@@ -26795,14 +26924,14 @@
       <c r="O29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="20" t="s">
-        <v>63</v>
+      <c r="P29" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="21" t="s">
-        <v>78</v>
+      <c r="R29" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="S29" s="1">
         <v>10</v>
@@ -26867,7 +26996,7 @@
         <v>25</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S30" s="1">
         <v>10</v>
@@ -26926,13 +27055,13 @@
         <v>25</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S31" s="1">
         <v>10</v>
@@ -26981,11 +27110,15 @@
       <c r="N32" s="12">
         <v>92.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.7</v>
       </c>
@@ -27015,11 +27148,11 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <pane ySplit="3" topLeftCell="K24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -27039,34 +27172,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -27215,7 +27348,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>20.638999999999999</v>
+        <v>29.638999999999999</v>
       </c>
       <c r="F5" s="6">
         <v>29.582000000000001</v>
@@ -28993,11 +29126,15 @@
       <c r="N32" s="12">
         <v>96.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>3.1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.8</v>
       </c>
@@ -29010,6 +29147,25 @@
       <c r="U32" s="13">
         <v>10.32</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33" t="s">
+        <v>87</v>
+      </c>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29027,10 +29183,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -29043,34 +29199,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -29142,7 +29298,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -29207,7 +29363,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -29272,7 +29428,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -29337,7 +29493,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -29402,7 +29558,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -29467,7 +29623,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -29532,7 +29688,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -29597,7 +29753,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -29618,7 +29774,7 @@
         <v>47</v>
       </c>
       <c r="H11" s="1">
-        <v>49.5</v>
+        <v>47.5</v>
       </c>
       <c r="I11" s="1">
         <v>42.4</v>
@@ -29662,7 +29818,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -29683,7 +29839,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="1">
-        <v>46.1</v>
+        <v>49.5</v>
       </c>
       <c r="I12" s="1">
         <v>45.1</v>
@@ -29727,7 +29883,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -29748,7 +29904,7 @@
         <v>45.3</v>
       </c>
       <c r="H13" s="1">
-        <v>44.8</v>
+        <v>46.1</v>
       </c>
       <c r="I13" s="1">
         <v>43.8</v>
@@ -29792,7 +29948,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -29813,7 +29969,7 @@
         <v>46.4</v>
       </c>
       <c r="H14" s="1">
-        <v>39.6</v>
+        <v>44.8</v>
       </c>
       <c r="I14" s="1">
         <v>44.6</v>
@@ -29857,7 +30013,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -29869,7 +30025,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5">
-        <v>26.687000000000001</v>
+        <v>29.687000000000001</v>
       </c>
       <c r="F15" s="6">
         <v>29.925000000000001</v>
@@ -29878,7 +30034,7 @@
         <v>38.5</v>
       </c>
       <c r="H15" s="1">
-        <v>43.9</v>
+        <v>39.6</v>
       </c>
       <c r="I15" s="1">
         <v>38.4</v>
@@ -29922,7 +30078,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -29943,7 +30099,7 @@
         <v>43.1</v>
       </c>
       <c r="H16" s="1">
-        <v>43</v>
+        <v>43.9</v>
       </c>
       <c r="I16" s="1">
         <v>37.6</v>
@@ -29987,7 +30143,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -30052,7 +30208,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -30117,7 +30273,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -30182,7 +30338,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -30247,7 +30403,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -30312,7 +30468,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -30377,7 +30533,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -30442,7 +30598,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -30507,7 +30663,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -30572,7 +30728,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -30637,7 +30793,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -30702,7 +30858,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -30767,7 +30923,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -30832,7 +30988,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -30897,7 +31053,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -30997,11 +31153,15 @@
       <c r="N32" s="12">
         <v>90.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>3</v>
       </c>
@@ -31014,6 +31174,9 @@
       <c r="U32" s="13">
         <v>5.49</v>
       </c>
+    </row>
+    <row r="33" spans="21:21">
+      <c r="U33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -31032,8 +31195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -31046,34 +31209,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -31145,7 +31308,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -31187,7 +31350,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" s="1">
         <v>4</v>
@@ -31210,7 +31373,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -31275,7 +31438,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -31340,7 +31503,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -31405,7 +31568,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -31470,7 +31633,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -31535,7 +31698,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -31600,7 +31763,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -31665,7 +31828,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -31730,7 +31893,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -31772,7 +31935,7 @@
         <v>86</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="1">
         <v>2</v>
@@ -31795,7 +31958,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -31860,7 +32023,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -31925,7 +32088,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -31973,7 +32136,7 @@
         <v>5</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R16" s="6">
         <v>3</v>
@@ -31990,7 +32153,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -32055,7 +32218,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -32120,7 +32283,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -32185,7 +32348,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -32250,7 +32413,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -32315,7 +32478,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -32332,8 +32495,8 @@
       <c r="F22" s="6">
         <v>29.382000000000001</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
+      <c r="G22" s="1">
+        <v>43.7</v>
       </c>
       <c r="H22" s="1">
         <v>41</v>
@@ -32380,7 +32543,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -32445,7 +32608,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -32463,7 +32626,7 @@
         <v>29.353000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="H24" s="1">
         <v>38.5</v>
@@ -32510,7 +32673,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -32575,7 +32738,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -32640,7 +32803,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -32705,7 +32868,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -32770,7 +32933,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -32835,7 +32998,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -32900,7 +33063,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -33000,11 +33163,15 @@
       <c r="N32" s="12">
         <v>87.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>3</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.4</v>
       </c>
@@ -33033,11 +33200,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:XFD33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -33057,34 +33224,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -35011,11 +35178,15 @@
       <c r="N32" s="12">
         <v>92</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.9</v>
       </c>
@@ -35028,6 +35199,24 @@
       <c r="U32" s="13">
         <v>1.75</v>
       </c>
+    </row>
+    <row r="33" spans="5:21 16384:16384">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="XFD33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -35049,8 +35238,8 @@
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -35070,34 +35259,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -35660,7 +35849,7 @@
         <v>0.155</v>
       </c>
       <c r="M11" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" s="6">
         <v>89</v>
@@ -36828,7 +37017,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L30" s="6">
-        <v>0.314</v>
+        <v>0.214</v>
       </c>
       <c r="M30" s="1">
         <v>98</v>
@@ -36956,11 +37145,15 @@
       <c r="N32" s="12">
         <v>91</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.4</v>
       </c>
@@ -36974,24 +37167,39 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="34" spans="7:19">
+    <row r="33" spans="7:21">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+    </row>
+    <row r="34" spans="7:21">
       <c r="G34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -37012,8 +37220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="M20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -37023,34 +37231,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -38177,7 +38385,7 @@
         <v>28.972999999999999</v>
       </c>
       <c r="F20" s="6">
-        <v>20.036999999999999</v>
+        <v>29.036999999999999</v>
       </c>
       <c r="G20" s="1">
         <v>37.1</v>
@@ -38875,7 +39083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" ht="15">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -38891,7 +39099,7 @@
       <c r="E31" s="5">
         <v>29.806000000000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="21">
         <v>29.922000000000001</v>
       </c>
       <c r="G31" s="1">
@@ -38977,11 +39185,15 @@
       <c r="N32" s="12">
         <v>87.4</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.9</v>
       </c>
@@ -39011,11 +39223,11 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -39035,34 +39247,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -39489,7 +39701,7 @@
         <v>51.1</v>
       </c>
       <c r="K9" s="1">
-        <v>267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L9" s="6">
         <v>0.26300000000000001</v>
@@ -39675,7 +39887,7 @@
         <v>42.1</v>
       </c>
       <c r="H12" s="1">
-        <v>47</v>
+        <v>47.9</v>
       </c>
       <c r="I12" s="1">
         <v>40.9</v>
@@ -40989,11 +41201,15 @@
       <c r="N32" s="12">
         <v>91.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.9</v>
       </c>
@@ -41006,6 +41222,23 @@
       <c r="U32" s="13">
         <v>3.2890000000000001</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -41023,11 +41256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="D22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -41047,34 +41280,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -41184,7 +41417,7 @@
       <c r="M4" s="1">
         <v>86</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <v>73</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -41986,7 +42219,7 @@
         <v>10</v>
       </c>
       <c r="U16" s="9">
-        <v>0.13800000000000001</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -42522,8 +42755,8 @@
       <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="5">
-        <v>29.3</v>
+      <c r="E25" s="23">
+        <v>29.39</v>
       </c>
       <c r="F25" s="6">
         <v>29.495999999999999</v>
@@ -42547,7 +42780,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N25" s="6">
         <v>81</v>
@@ -43001,11 +43234,15 @@
       <c r="N32" s="12">
         <v>90</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.3</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.9</v>
       </c>
@@ -43018,6 +43255,23 @@
       <c r="U32" s="13">
         <v>2.3450000000000002</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43036,11 +43290,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="U10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="M23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -43060,34 +43314,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -45014,11 +45268,15 @@
       <c r="N32" s="12">
         <v>91</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.8</v>
       </c>
@@ -45031,6 +45289,23 @@
       <c r="U32" s="13">
         <v>4.3760000000000003</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -45051,8 +45326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L31"/>
+    <sheetView topLeftCell="M24" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -45065,34 +45340,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -47019,11 +47294,15 @@
       <c r="N32" s="12">
         <v>91.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.7</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.7</v>
       </c>
@@ -47055,8 +47334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -47069,34 +47348,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -49023,11 +49302,15 @@
       <c r="N32" s="12">
         <v>91.4</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.9</v>
       </c>
@@ -49057,11 +49340,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <pane ySplit="3" topLeftCell="L22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -49081,34 +49364,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -49526,7 +49809,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>30.9</v>
+        <v>39.9</v>
       </c>
       <c r="I9" s="1">
         <v>32.700000000000003</v>
@@ -49582,7 +49865,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>30.314</v>
+        <v>29.314</v>
       </c>
       <c r="F10" s="6">
         <v>29.085999999999999</v>
@@ -49647,7 +49930,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>30.379000000000001</v>
+        <v>29.379000000000001</v>
       </c>
       <c r="F11" s="6">
         <v>29.486000000000001</v>
@@ -49857,7 +50140,7 @@
         <v>33.9</v>
       </c>
       <c r="J14" s="6">
-        <v>42</v>
+        <v>42.9</v>
       </c>
       <c r="K14" s="1">
         <v>0.23899999999999999</v>
@@ -50167,7 +50450,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5">
-        <v>29.995000000000001</v>
+        <v>29.094999999999999</v>
       </c>
       <c r="F19" s="6">
         <v>29.1</v>
@@ -50435,6 +50718,9 @@
       <c r="G23" s="1">
         <v>32.700000000000003</v>
       </c>
+      <c r="H23" s="1">
+        <v>32.9</v>
+      </c>
       <c r="I23" s="1">
         <v>30.1</v>
       </c>
@@ -50498,7 +50784,7 @@
         <v>31.9</v>
       </c>
       <c r="H24" s="1">
-        <v>0.8</v>
+        <v>26.8</v>
       </c>
       <c r="I24" s="1">
         <v>26</v>
@@ -50752,7 +51038,7 @@
         <v>30.11</v>
       </c>
       <c r="F28" s="6">
-        <v>29.097000000000001</v>
+        <v>30.097000000000001</v>
       </c>
       <c r="G28" s="1">
         <v>32</v>
@@ -51032,11 +51318,15 @@
       <c r="N32" s="12">
         <v>95.4</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.1</v>
       </c>
@@ -51049,6 +51339,23 @@
       <c r="U32" s="13">
         <v>3.0670000000000002</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -51066,11 +51373,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+      <pane ySplit="3" topLeftCell="P27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -51090,34 +51397,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -51656,7 +51963,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>20.32</v>
+        <v>29.32</v>
       </c>
       <c r="F11" s="6">
         <v>29.393999999999998</v>
@@ -51703,7 +52010,7 @@
       <c r="T11" s="1">
         <v>10</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="22">
         <v>0.27800000000000002</v>
       </c>
     </row>
@@ -51768,7 +52075,7 @@
       <c r="T12" s="1">
         <v>10</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -51833,7 +52140,7 @@
       <c r="T13" s="1">
         <v>10</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="22">
         <v>0.02</v>
       </c>
     </row>
@@ -51898,7 +52205,7 @@
       <c r="T14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -51963,7 +52270,7 @@
       <c r="T15" s="1">
         <v>10</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52028,7 +52335,7 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="22">
         <v>0.11</v>
       </c>
     </row>
@@ -52093,7 +52400,7 @@
       <c r="T17" s="1">
         <v>10</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52223,7 +52530,7 @@
       <c r="T19" s="1">
         <v>0</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="22">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -52243,7 +52550,7 @@
       <c r="E20" s="5">
         <v>28.957999999999998</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="24">
         <v>29</v>
       </c>
       <c r="G20" s="1">
@@ -52288,7 +52595,7 @@
       <c r="T20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="22">
         <v>0.55700000000000005</v>
       </c>
     </row>
@@ -52353,7 +52660,7 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="22">
         <v>0.12</v>
       </c>
     </row>
@@ -52371,7 +52678,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="5">
-        <v>29.382000000000001</v>
+        <v>29.381</v>
       </c>
       <c r="F22" s="6">
         <v>29.167999999999999</v>
@@ -52418,7 +52725,7 @@
       <c r="T22" s="1">
         <v>10</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="22">
         <v>0.3</v>
       </c>
     </row>
@@ -52460,7 +52767,7 @@
         <v>0.161</v>
       </c>
       <c r="M23" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="N23" s="6">
         <v>83</v>
@@ -52483,7 +52790,7 @@
       <c r="T23" s="1">
         <v>1</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="22">
         <v>0.15</v>
       </c>
     </row>
@@ -52548,7 +52855,7 @@
       <c r="T24" s="1">
         <v>0</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52613,7 +52920,7 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U25" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52636,6 +52943,9 @@
       <c r="F26" s="6">
         <v>29.757999999999999</v>
       </c>
+      <c r="G26" s="1">
+        <v>37.299999999999997</v>
+      </c>
       <c r="H26" s="1">
         <v>37</v>
       </c>
@@ -52675,7 +52985,7 @@
       <c r="T26" s="1">
         <v>10</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -52740,7 +53050,7 @@
       <c r="T27" s="1">
         <v>10</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52805,7 +53115,7 @@
       <c r="T28" s="1">
         <v>10</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52870,7 +53180,7 @@
       <c r="T29" s="1">
         <v>10</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -52935,7 +53245,7 @@
       <c r="T30" s="1">
         <v>10</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="22">
         <v>0.15</v>
       </c>
     </row>
@@ -53000,7 +53310,7 @@
       <c r="T31" s="1">
         <v>0</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="22">
         <v>0.02</v>
       </c>
     </row>
@@ -53041,11 +53351,15 @@
       <c r="N32" s="12">
         <v>87.2</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.9</v>
       </c>
@@ -53058,6 +53372,23 @@
       <c r="U32" s="13">
         <v>3.1920000000000002</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -53076,11 +53407,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="H25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
       <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -53100,34 +53431,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -53406,7 +53737,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="5">
-        <v>30.001999999999999</v>
+        <v>30.003</v>
       </c>
       <c r="F7" s="6">
         <v>30.065999999999999</v>
@@ -53477,7 +53808,7 @@
         <v>29.574000000000002</v>
       </c>
       <c r="G8" s="1">
-        <v>36.9</v>
+        <v>30.9</v>
       </c>
       <c r="H8" s="1">
         <v>35.9</v>
@@ -53625,7 +53956,7 @@
         <v>0.214</v>
       </c>
       <c r="M10" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N10" s="6">
         <v>87</v>
@@ -53755,7 +54086,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N12" s="6">
         <v>92</v>
@@ -53820,7 +54151,7 @@
         <v>0.222</v>
       </c>
       <c r="M13" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N13" s="6">
         <v>89</v>
@@ -53885,7 +54216,7 @@
         <v>0.155</v>
       </c>
       <c r="M14" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N14" s="6">
         <v>83</v>
@@ -53950,7 +54281,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N15" s="6">
         <v>91</v>
@@ -54015,7 +54346,7 @@
         <v>0.193</v>
       </c>
       <c r="M16" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N16" s="6">
         <v>92</v>
@@ -54080,7 +54411,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N17" s="6">
         <v>90</v>
@@ -54145,7 +54476,7 @@
         <v>0.186</v>
       </c>
       <c r="M18" s="1">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="N18" s="6">
         <v>94</v>
@@ -54210,7 +54541,7 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N19" s="6">
         <v>90</v>
@@ -54511,7 +54842,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5">
-        <v>29.033000000000001</v>
+        <v>29.233000000000001</v>
       </c>
       <c r="F24" s="6">
         <v>29.303999999999998</v>
@@ -54621,7 +54952,7 @@
         <v>10</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>22</v>
@@ -54686,7 +55017,7 @@
         <v>8</v>
       </c>
       <c r="T26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U26" s="9">
         <v>0.25</v>
@@ -54751,7 +55082,7 @@
         <v>6</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="9" t="s">
         <v>22</v>
@@ -54816,7 +55147,7 @@
         <v>10</v>
       </c>
       <c r="T28" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U28" s="9">
         <v>0.05</v>
@@ -54881,7 +55212,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U29" s="9">
         <v>0.09</v>
@@ -54946,7 +55277,7 @@
         <v>10</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U30" s="9">
         <v>7.0000000000000007E-2</v>
@@ -55011,7 +55342,7 @@
         <v>10</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U31" s="9">
         <v>0.16</v>
@@ -55054,11 +55385,15 @@
       <c r="N32" s="12">
         <v>87.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.5</v>
       </c>
@@ -55066,11 +55401,28 @@
         <v>9.6</v>
       </c>
       <c r="T32" s="12">
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="U32" s="13">
         <v>4.7300000000000004</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -55096,78 +55448,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35914</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35914</Url>
-      <Description>H7Q62YT2XCZT-908671883-35914</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -55199,6 +55481,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -55297,6 +55580,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -55466,12 +55754,82 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35914</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35914</Url>
+      <Description>H7Q62YT2XCZT-908671883-35914</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7D151C-F925-48CE-ACE6-2441D0AD1E65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E79E75-6571-49FA-AF17-B1ED6E11B62C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55479,5 +55837,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE143528-2339-48A9-9DF1-651163E6660B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7D151C-F925-48CE-ACE6-2441D0AD1E65}"/>
 </file>
--- a/second-order/1879/February1879.xlsx
+++ b/second-order/1879/February1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/NMLAProjects/Second Order Stations/ANNE/Pending/1879/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1879/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1543" documentId="11_F97D265279DE683645B110BA7E79390646AD845C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EFEF06-2991-4A0D-A86D-F301579129D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184CDE61-CF6E-384C-8913-059FA0F60C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="840" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -819,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,12 +975,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2982,12 +2982,12 @@
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3024,7 +3024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4989,12 +4989,12 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5031,7 +5031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6994,23 +6994,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7047,7 +7047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>61</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8991,7 +8991,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -9030,12 +9030,12 @@
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9072,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11016,7 +11016,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="33" spans="18:18">
+    <row r="33" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R33" t="s">
         <v>70</v>
       </c>
@@ -11038,16 +11038,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="M23" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -11084,7 +11084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>29.936</v>
       </c>
       <c r="F7" s="6">
-        <v>29.045999999999999</v>
+        <v>30.045999999999999</v>
       </c>
       <c r="G7" s="1">
         <v>32.799999999999997</v>
@@ -11409,7 +11409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -13049,12 +13049,12 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13091,7 +13091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -15050,23 +15050,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -15103,7 +15103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -17047,7 +17047,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -17086,12 +17086,12 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -17128,7 +17128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -19072,7 +19072,7 @@
         <v>4.7430000000000003</v>
       </c>
     </row>
-    <row r="33" spans="20:20">
+    <row r="33" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T33" t="s">
         <v>75</v>
       </c>
@@ -19096,23 +19096,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -19149,7 +19149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21093,7 +21093,7 @@
         <v>3.2069999999999999</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -21132,12 +21132,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -21174,7 +21174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -23059,7 +23059,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -23139,12 +23139,12 @@
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -23181,7 +23181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="15">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -25146,12 +25146,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -25188,7 +25188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -25318,7 +25318,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -25448,7 +25448,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -26098,7 +26098,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -26618,7 +26618,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -26813,7 +26813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -27008,7 +27008,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -27073,7 +27073,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -27151,23 +27151,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -27204,7 +27204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27269,7 +27269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -27659,7 +27659,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -27724,7 +27724,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -27854,7 +27854,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -28114,7 +28114,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -28179,7 +28179,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -28244,7 +28244,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -28374,7 +28374,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -28439,7 +28439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -28569,7 +28569,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -28764,7 +28764,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -28829,7 +28829,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -28959,7 +28959,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -29148,7 +29148,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -29189,12 +29189,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -29231,7 +29231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>88</v>
       </c>
@@ -29361,7 +29361,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -29491,7 +29491,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>88</v>
       </c>
@@ -29556,7 +29556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
@@ -29686,7 +29686,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>88</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>88</v>
       </c>
@@ -30011,7 +30011,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
@@ -30141,7 +30141,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
@@ -30271,7 +30271,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
@@ -30401,7 +30401,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>88</v>
       </c>
@@ -30596,7 +30596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>88</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>88</v>
       </c>
@@ -31051,7 +31051,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -31175,7 +31175,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="33" spans="21:21">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U33" s="25"/>
     </row>
   </sheetData>
@@ -31199,12 +31199,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -31241,7 +31241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -31501,7 +31501,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -31631,7 +31631,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -31696,7 +31696,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>89</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
@@ -31891,7 +31891,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -32086,7 +32086,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -32216,7 +32216,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
@@ -32281,7 +32281,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -32346,7 +32346,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -32411,7 +32411,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -32736,7 +32736,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -32801,7 +32801,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
@@ -32931,7 +32931,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
@@ -32996,7 +32996,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -33126,7 +33126,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -33204,22 +33204,22 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -33256,7 +33256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33321,7 +33321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
@@ -33581,7 +33581,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>93</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
@@ -33711,7 +33711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -33841,7 +33841,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
@@ -33906,7 +33906,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -33971,7 +33971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
@@ -34036,7 +34036,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -34166,7 +34166,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
@@ -34296,7 +34296,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
@@ -34361,7 +34361,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -34426,7 +34426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
@@ -34491,7 +34491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
@@ -34621,7 +34621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
@@ -34751,7 +34751,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -34816,7 +34816,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -34881,7 +34881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -34946,7 +34946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
@@ -35011,7 +35011,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -35141,7 +35141,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -35200,7 +35200,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" spans="5:21 16384:16384">
+    <row r="33" spans="5:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -35239,22 +35239,22 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -35291,7 +35291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35356,7 +35356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
@@ -35421,7 +35421,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -35486,7 +35486,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -35551,7 +35551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -35616,7 +35616,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
@@ -35746,7 +35746,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -35811,7 +35811,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -35876,7 +35876,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -36006,7 +36006,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -36071,7 +36071,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -36193,7 +36193,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -36254,7 +36254,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -36315,7 +36315,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -36376,7 +36376,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -36437,7 +36437,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
@@ -36498,7 +36498,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -36559,7 +36559,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -36620,7 +36620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -36803,7 +36803,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -36864,7 +36864,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -36925,7 +36925,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -37047,7 +37047,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -37108,7 +37108,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -37167,7 +37167,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="33" spans="7:21">
+    <row r="33" spans="7:21" x14ac:dyDescent="0.2">
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -37182,7 +37182,7 @@
       <c r="T33"/>
       <c r="U33"/>
     </row>
-    <row r="34" spans="7:21">
+    <row r="34" spans="7:21" x14ac:dyDescent="0.2">
       <c r="G34" s="1" t="s">
         <v>95</v>
       </c>
@@ -37224,9 +37224,9 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -37263,7 +37263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37328,7 +37328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -37393,7 +37393,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -37458,7 +37458,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
@@ -37523,7 +37523,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>98</v>
       </c>
@@ -37588,7 +37588,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -37718,7 +37718,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>98</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
@@ -37848,7 +37848,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
@@ -37913,7 +37913,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -37978,7 +37978,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
@@ -38043,7 +38043,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -38108,7 +38108,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -38173,7 +38173,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>98</v>
       </c>
@@ -38238,7 +38238,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
@@ -38303,7 +38303,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -38368,7 +38368,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -38433,7 +38433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
@@ -38498,7 +38498,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -38563,7 +38563,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
@@ -38628,7 +38628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -38693,7 +38693,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -38758,7 +38758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
@@ -38823,7 +38823,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
@@ -38953,7 +38953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>98</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -39083,7 +39083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" ht="15">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -39148,7 +39148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -39225,24 +39225,24 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -39279,7 +39279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39344,7 +39344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -39474,7 +39474,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
@@ -39539,7 +39539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -39604,7 +39604,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
@@ -39669,7 +39669,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>101</v>
       </c>
@@ -39734,7 +39734,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
@@ -39929,7 +39929,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -39994,7 +39994,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
@@ -40059,7 +40059,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
@@ -40124,7 +40124,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -40189,7 +40189,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -40254,7 +40254,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
@@ -40319,7 +40319,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>101</v>
       </c>
@@ -40384,7 +40384,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>101</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
@@ -40514,7 +40514,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>101</v>
       </c>
@@ -40644,7 +40644,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>101</v>
       </c>
@@ -40709,7 +40709,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
@@ -40839,7 +40839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
@@ -40904,7 +40904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>101</v>
       </c>
@@ -40969,7 +40969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
@@ -41034,7 +41034,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
@@ -41099,7 +41099,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -41223,7 +41223,7 @@
         <v>3.2890000000000001</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -41259,23 +41259,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="D22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -41312,7 +41312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41377,7 +41377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -41442,7 +41442,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -41572,7 +41572,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -41637,7 +41637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -41702,7 +41702,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -41767,7 +41767,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -41832,7 +41832,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -41897,7 +41897,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -41962,7 +41962,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -42027,7 +42027,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -42092,7 +42092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -42157,7 +42157,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -42222,7 +42222,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -42287,7 +42287,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -42352,7 +42352,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -42482,7 +42482,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -42612,7 +42612,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -42677,7 +42677,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -42742,7 +42742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -42807,7 +42807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -42872,7 +42872,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -42937,7 +42937,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -43002,7 +43002,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -43067,7 +43067,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -43197,7 +43197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -43256,7 +43256,7 @@
         <v>2.3450000000000002</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -43293,23 +43293,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -43346,7 +43346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43411,7 +43411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -43476,7 +43476,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -43606,7 +43606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -43671,7 +43671,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -43736,7 +43736,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -43801,7 +43801,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -43931,7 +43931,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -43996,7 +43996,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -44061,7 +44061,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -44126,7 +44126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -44191,7 +44191,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -44256,7 +44256,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -44321,7 +44321,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -44386,7 +44386,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -44451,7 +44451,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -44516,7 +44516,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -44581,7 +44581,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -44711,7 +44711,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -44776,7 +44776,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -44841,7 +44841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -44906,7 +44906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -44971,7 +44971,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -45036,7 +45036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -45101,7 +45101,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -45166,7 +45166,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -45231,7 +45231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -45290,7 +45290,7 @@
         <v>4.3760000000000003</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -45330,12 +45330,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -45372,7 +45372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45437,7 +45437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -45502,7 +45502,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -45567,7 +45567,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -45632,7 +45632,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -45697,7 +45697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -45762,7 +45762,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -45827,7 +45827,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -45892,7 +45892,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -45957,7 +45957,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -46022,7 +46022,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -46087,7 +46087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -46152,7 +46152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -46217,7 +46217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -46282,7 +46282,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -46347,7 +46347,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -46412,7 +46412,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -46477,7 +46477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -46542,7 +46542,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -46607,7 +46607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -46672,7 +46672,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -46737,7 +46737,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -46802,7 +46802,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -46867,7 +46867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -46932,7 +46932,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -46997,7 +46997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -47062,7 +47062,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -47127,7 +47127,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -47192,7 +47192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -47257,7 +47257,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -47338,12 +47338,12 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.9">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -47380,7 +47380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -47445,7 +47445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -47510,7 +47510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -47575,7 +47575,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -47640,7 +47640,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -47705,7 +47705,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -47835,7 +47835,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -47900,7 +47900,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -48030,7 +48030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -48095,7 +48095,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -48160,7 +48160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -48225,7 +48225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -48290,7 +48290,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -48355,7 +48355,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -48420,7 +48420,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -48485,7 +48485,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -48550,7 +48550,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -48615,7 +48615,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -48745,7 +48745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -48810,7 +48810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -49005,7 +49005,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -49070,7 +49070,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -49135,7 +49135,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -49343,23 +49343,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -49396,7 +49396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -49461,7 +49461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -49526,7 +49526,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -49591,7 +49591,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -49656,7 +49656,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -49721,7 +49721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -49786,7 +49786,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -49851,7 +49851,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -49916,7 +49916,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -49981,7 +49981,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -50046,7 +50046,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -50111,7 +50111,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -50176,7 +50176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -50241,7 +50241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -50306,7 +50306,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -50371,7 +50371,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -50436,7 +50436,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -50501,7 +50501,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -50566,7 +50566,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -50631,7 +50631,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -50696,7 +50696,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -50761,7 +50761,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -50826,7 +50826,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -50891,7 +50891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -50956,7 +50956,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -51021,7 +51021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -51086,7 +51086,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -51151,7 +51151,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -51216,7 +51216,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -51281,7 +51281,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -51340,7 +51340,7 @@
         <v>3.0670000000000002</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -51376,23 +51376,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="P27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -51429,7 +51429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -51494,7 +51494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -51559,7 +51559,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -51624,7 +51624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -51689,7 +51689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -51754,7 +51754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -51819,7 +51819,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -51884,7 +51884,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -51949,7 +51949,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -52014,7 +52014,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -52079,7 +52079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -52144,7 +52144,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -52209,7 +52209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -52274,7 +52274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -52339,7 +52339,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -52404,7 +52404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -52469,7 +52469,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -52534,7 +52534,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -52599,7 +52599,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -52729,7 +52729,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -52794,7 +52794,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -52859,7 +52859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -52924,7 +52924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -52989,7 +52989,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -53054,7 +53054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -53119,7 +53119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -53184,7 +53184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -53249,7 +53249,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -53314,7 +53314,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -53373,7 +53373,7 @@
         <v>3.1920000000000002</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -53410,23 +53410,23 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
       <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
-      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -53463,7 +53463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -53528,7 +53528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -53593,7 +53593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -53658,7 +53658,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -53723,7 +53723,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -53788,7 +53788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -53853,7 +53853,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -53918,7 +53918,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -53983,7 +53983,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -54048,7 +54048,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -54113,7 +54113,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -54178,7 +54178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -54243,7 +54243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -54308,7 +54308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -54373,7 +54373,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -54438,7 +54438,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -54503,7 +54503,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -54568,7 +54568,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -54633,7 +54633,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -54698,7 +54698,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -54763,7 +54763,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -54828,7 +54828,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -54893,7 +54893,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -54958,7 +54958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -55023,7 +55023,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -55088,7 +55088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -55153,7 +55153,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -55218,7 +55218,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -55283,7 +55283,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -55348,7 +55348,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -55407,7 +55407,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -55440,14 +55440,75 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35914</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35914</Url>
+      <Description>H7Q62YT2XCZT-908671883-35914</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -55754,88 +55815,61 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35914</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35914</Url>
-      <Description>H7Q62YT2XCZT-908671883-35914</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7D151C-F925-48CE-ACE6-2441D0AD1E65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E79E75-6571-49FA-AF17-B1ED6E11B62C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E79E75-6571-49FA-AF17-B1ED6E11B62C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7D151C-F925-48CE-ACE6-2441D0AD1E65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>